--- a/nBackCond1.xlsx
+++ b/nBackCond1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\n-back-alpha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\n-back-alpha2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DB443D-8B0D-4AB1-88F8-659705554669}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6EB7E-486E-41A7-B279-ACFBA1CB2568}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16536" windowHeight="8832" xr2:uid="{D6838018-3820-465F-8F23-46E4126639EC}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>space</t>
   </si>
   <si>
-    <t>squareT1</t>
+    <t>square</t>
   </si>
   <si>
-    <t>loc1T1</t>
+    <t>loc1</t>
   </si>
   <si>
-    <t>loc2T1</t>
+    <t>loc2</t>
   </si>
   <si>
-    <t>corrAnsT1</t>
+    <t>corrAns</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
